--- a/biology/Histoire de la zoologie et de la botanique/Casimir_Christoph_Schmidel/Casimir_Christoph_Schmidel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Casimir_Christoph_Schmidel/Casimir_Christoph_Schmidel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Casimir Christoph Schmidel est un médecin et un botaniste allemand, né le 21 novembre 1718 à Bayreuth et mort le 28 décembre 1792 à Erlangen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il obtient son titre de docteur en médecine à l'université de Iéna en 1742. Il enseigne d'abord à la nouvelle université de Bayreuth. Celle-ci est déplacée en 1743 à Erlangue (Erlangen), Schmidel y devient professeur d'anatomie et de botanique. En 1763, il devient le médecin particulier de la cour d'Ansbach, mais il ne supporte guère la vie de courtisan et est remplacé peu après. Il est chargé d'accomagner la princesse Sophie de Wurtemberg et visite ainsi Lausanne, Dieppe et l'Italie. Il revient en Allemagne, mais est frappé de paralysie et de démence.
 Il fait paraître une édition de l’œuvre botanique de Conrad Gessner (1516-1565) en 1754. Il est l’auteur de :
